--- a/Excel/17. Macros/Lecture_12_Macro.xlsx
+++ b/Excel/17. Macros/Lecture_12_Macro.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advance_Excel_BI\18. Macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\Excel\17. Macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E694046D-01D6-496A-9F22-66EEE3003063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47272BA-5A20-4816-9C6E-86F6CEE2CA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="18" r:id="rId1"/>
     <sheet name="Definition" sheetId="21" r:id="rId2"/>
     <sheet name="Exercise" sheetId="20" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="28">
   <si>
     <t>Student 1</t>
   </si>
@@ -90,22 +101,35 @@
   </si>
   <si>
     <t>A Macro is a set of programming instructions stored as a procedure, which means it's a snippet of code which contains a sequence of actions, these actions could be keys based on keyboard or mouse clicks.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>Student 8</t>
+  </si>
+  <si>
+    <t>Student 9</t>
+  </si>
+  <si>
+    <t>Student 10</t>
+  </si>
+  <si>
+    <t>Student 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,12 +146,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -139,8 +157,38 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aparajita"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,12 +197,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,16 +234,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -193,166 +261,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,28 +323,28 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>160020</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>365760</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>373380</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>297180</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>93518</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9217" name="Button 1" hidden="1">
+            <xdr:cNvPr id="9220" name="Button 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9217"/>
+                  <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -436,7 +380,7 @@
                   <a:latin typeface="Calibri"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>Exercise</a:t>
+                <a:t>Testing</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -747,262 +691,309 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:H23"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="8" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="15" t="s">
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="5">
         <v>99</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="5">
         <v>83</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="5">
         <v>85</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="15" t="s">
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5">
+        <f>D6+E6+F6</f>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="5">
         <v>65</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="5">
         <v>53</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="5">
         <v>43</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="15" t="s">
+      <c r="I7" s="5">
+        <f t="shared" ref="I7:I10" si="0">D7+E7+F7</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="5">
         <v>85</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="5">
         <v>80</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="5">
         <v>79</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="15" t="s">
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="5">
         <v>100</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="5">
         <v>99</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="5">
         <v>82</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="15" t="s">
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="5">
         <v>45</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="5">
         <v>60</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="5">
         <v>30</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="15" t="s">
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="15" t="s">
+      <c r="I18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="5">
         <v>99</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="5">
         <v>83</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="5">
         <v>85</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="15" t="s">
+      <c r="G19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="5">
+        <f>D19+E19+F19</f>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="5">
         <v>65</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="5">
         <v>53</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="5">
         <v>43</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="15" t="s">
+      <c r="I20" s="5">
+        <f t="shared" ref="I20:I23" si="1">D20+E20+F20</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="5">
         <v>85</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="5">
         <v>80</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="5">
         <v>79</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="15" t="s">
+      <c r="G21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="5">
         <v>100</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="5">
         <v>99</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="5">
         <v>82</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="15" t="s">
+      <c r="G22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="5">
         <v>45</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="5">
         <v>60</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="5">
         <v>30</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>12</v>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="1"/>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1012,6 +1003,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CE8125-24C5-40FD-B17A-57D0D7E5F5EB}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1021,50 +1013,50 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1077,10 +1069,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B2:H37"/>
+  <dimension ref="B2:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1083,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1101,486 +1093,609 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>99</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>83</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>85</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="14" t="s">
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>65</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>53</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>43</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="14" t="s">
+    <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>85</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>80</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>79</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="14" t="s">
+      <c r="G9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>100</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="10">
         <v>99</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>82</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
+      <c r="G10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>45</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="10">
         <v>60</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>30</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="G11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="14" t="s">
+    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>99</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>83</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>85</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
+      <c r="G17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>65</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="10">
         <v>53</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="10">
         <v>43</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="14" t="s">
+    <row r="19" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>85</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="10">
         <v>80</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>79</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="14" t="s">
+      <c r="G19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>100</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="10">
         <v>99</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="10">
         <v>82</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="14" t="s">
+      <c r="G20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>45</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="10">
         <v>60</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>30</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="14" t="s">
+      <c r="G21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="10">
         <v>100</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="10">
         <v>99</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>82</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="14" t="s">
+      <c r="G22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="10">
         <v>45</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="10">
         <v>60</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="10">
         <v>30</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C30" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+      <c r="I30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="10">
         <v>99</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="10">
         <v>83</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="10">
         <v>85</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
+      <c r="G31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="10">
+        <v>83</v>
+      </c>
+      <c r="J31" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="10">
         <v>65</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="10">
         <v>53</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="10">
         <v>43</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="7" t="s">
+      <c r="G32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
+      <c r="I32" s="10">
+        <v>53</v>
+      </c>
+      <c r="J32" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="10">
         <v>85</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="10">
         <v>80</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="10">
         <v>79</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="2" t="s">
+      <c r="G33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="10">
+        <v>80</v>
+      </c>
+      <c r="J33" s="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="10">
         <v>100</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="10">
         <v>99</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="10">
         <v>82</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="2" t="s">
+      <c r="G34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="10">
+        <v>99</v>
+      </c>
+      <c r="J34" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="10">
         <v>45</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="10">
         <v>60</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="10">
         <v>30</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="2" t="s">
+      <c r="G35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="10">
+        <v>60</v>
+      </c>
+      <c r="J35" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="10">
         <v>100</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="10">
         <v>99</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="10">
         <v>82</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
+      <c r="G36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="10">
+        <v>99</v>
+      </c>
+      <c r="J36" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C37" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="10">
         <v>45</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="10">
         <v>60</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="10">
         <v>30</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>12</v>
+      <c r="G37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="10">
+        <v>60</v>
+      </c>
+      <c r="J37" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="10">
+        <v>-10</v>
+      </c>
+      <c r="E38" s="10">
+        <v>21</v>
+      </c>
+      <c r="F38" s="10">
+        <v>-22</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="10">
+        <v>21</v>
+      </c>
+      <c r="J38" s="10">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="10">
+        <v>-65</v>
+      </c>
+      <c r="E39" s="10">
+        <v>-18</v>
+      </c>
+      <c r="F39" s="10">
+        <v>-74</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="10">
+        <v>-18</v>
+      </c>
+      <c r="J39" s="10">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="10">
+        <v>-120</v>
+      </c>
+      <c r="E40" s="10">
+        <v>-57</v>
+      </c>
+      <c r="F40" s="10">
+        <v>-126</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="10">
+        <v>-57</v>
+      </c>
+      <c r="J40" s="10">
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="10">
+        <v>-175</v>
+      </c>
+      <c r="E41" s="10">
+        <v>-96</v>
+      </c>
+      <c r="F41" s="10">
+        <v>-178</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="10">
+        <v>-96</v>
+      </c>
+      <c r="J41" s="10">
+        <v>-178</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1589,20 +1704,20 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9217" r:id="rId3" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Exercise">
-                <anchor moveWithCells="1" sizeWithCells="1">
+            <control shapeId="9220" r:id="rId3" name="Button 4">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Testing">
+                <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>160020</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>99060</xdr:rowOff>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>365760</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>83820</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>373380</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>99060</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
